--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3948674.994804021</v>
+        <v>3944369.871806952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.72734108435023</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>130.1712092340063</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>24.94416037664449</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.148282835230615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>59.21548567061202</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>178.7600883149708</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760063</v>
+        <v>92.8578877276004</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074813</v>
+        <v>44.33060630074793</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>6.766182538596326</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>178.3391362643218</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.95678875427262</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304066</v>
+        <v>30.24193919304048</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.811433473811695</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>66.33578505289471</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>200.4727983501231</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
-        <v>9.933770478400824</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>159.960118617098</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3684423428068</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>64.91921363453612</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.632153562788</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>134.1795292011422</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>98.99704524587895</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>40.3285337992676</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051597</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>97.0262957429552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3999237630466</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.602497644399736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>126.4418041083153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2935157990527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8965430419533</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>126.6321535627887</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569555</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576163</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>27.24739666248108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652798</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="C2" t="n">
-        <v>730.1757415093705</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="D2" t="n">
-        <v>540.7559564928856</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764008</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>293.4024563932556</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.9942574319834</v>
+        <v>500.4586105884538</v>
       </c>
       <c r="C3" t="n">
-        <v>152.5412281508565</v>
+        <v>326.0055813073268</v>
       </c>
       <c r="D3" t="n">
-        <v>152.5412281508565</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>177.0711716460756</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810244</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645396</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645396</v>
+        <v>525.654732181024</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645396</v>
+        <v>525.654732181024</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645396</v>
+        <v>500.4586105884538</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.9942574319834</v>
+        <v>500.4586105884538</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4518,22 +4518,22 @@
         <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>611.5290703308722</v>
+        <v>1354.437057576805</v>
       </c>
       <c r="C5" t="n">
-        <v>551.7154484413651</v>
+        <v>985.4745406363932</v>
       </c>
       <c r="D5" t="n">
-        <v>551.7154484413651</v>
+        <v>627.2088420296427</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413651</v>
+        <v>627.2088420296427</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>620.2633412804392</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>439.6975955077415</v>
       </c>
       <c r="H5" t="n">
         <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017213</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746965</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709147</v>
+        <v>823.5081935709181</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.41363507924</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332752</v>
+        <v>1621.822248332759</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837878</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="W5" t="n">
-        <v>1375.134160567764</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="X5" t="n">
-        <v>1001.668402306684</v>
+        <v>1354.437057576805</v>
       </c>
       <c r="Y5" t="n">
-        <v>611.5290703308722</v>
+        <v>1354.437057576805</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278.5374409085204</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="C6" t="n">
-        <v>278.5374409085204</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>278.5374409085204</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>278.5374409085204</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>132.0028829354054</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354054</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787494</v>
+        <v>61.66788464787539</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806055</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189964</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223481</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352453</v>
+        <v>958.8971200352485</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906545</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703769</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699365</v>
+        <v>1394.26574288701</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419119</v>
+        <v>1394.26574288701</v>
       </c>
       <c r="U6" t="n">
-        <v>834.6536183746756</v>
+        <v>1394.26574288701</v>
       </c>
       <c r="V6" t="n">
-        <v>834.6536183746756</v>
+        <v>1159.113634655268</v>
       </c>
       <c r="W6" t="n">
-        <v>654.5130766935424</v>
+        <v>904.8762779270662</v>
       </c>
       <c r="X6" t="n">
-        <v>654.5130766935424</v>
+        <v>697.0247777215334</v>
       </c>
       <c r="Y6" t="n">
-        <v>446.7527779285884</v>
+        <v>489.2644789565795</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.8294986877811</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="C7" t="n">
-        <v>141.8294986877811</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="D7" t="n">
-        <v>65.10546964306127</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306127</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306127</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306127</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306127</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306127</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675756</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574653</v>
+        <v>64.24066662574694</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584108</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347961</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195352</v>
+        <v>287.8841338195368</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934699</v>
+        <v>342.3101561934719</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857984</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857984</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="X7" t="n">
-        <v>141.8294986877811</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.8294986877811</v>
+        <v>359.9085107233647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.3515860716618</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3457425838894</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838894</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428182</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232738</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642789</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.556516372675</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.090758111595</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.9514261357835</v>
+        <v>1965.962050793417</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5261380428188</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0731087616919</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562348</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104406</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474386</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1585.239526880041</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1357.137937013306</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1357.137937013306</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1357.137937013306</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1149.286436807773</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>941.5261380428188</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809316</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809316</v>
+        <v>358.7134696495909</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809316</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809316</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981553</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927341</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377472</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033673</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126831</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126831</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126831</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>411.1248508126831</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>411.1248508126831</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361105</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809316</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809316</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.487582220359</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349513</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978464</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>275.900381799936</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>275.900381799936</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836312021</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860766</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036837</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057735</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057735</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614416</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614416</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3571.009098775287</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3350.216519631757</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,28 +6703,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2252.19838578386</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,34 +7192,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2951.54259528685</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>2782.606412358944</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D40" t="n">
-        <v>2632.489772946608</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E40" t="n">
-        <v>2484.576679364215</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3871.390360195598</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3581.973190158637</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3353.98363926062</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>3133.19106011709</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192576</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171269</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.815803413396</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310027</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487565</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831762</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625875</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.896109690897</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473667</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,13 +7639,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.4862366927521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.50548976104</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>152.3434691354488</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>41.29766760034491</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>120.3791545843331</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>47.21554925516558</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922686</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856533</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>172.2294825375376</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.58448189332931</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.52450498097795</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.999424436147</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462241</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856573</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272885</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253106</v>
+        <v>270592.3620253125</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231959</v>
+        <v>115410.0540231928</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854466</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881923</v>
+        <v>62913.63765881975</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197564</v>
+        <v>27875.25362197488</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263467</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26432,31 +26432,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189216</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
+        <v>16046.58397189189</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189189</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936805</v>
+        <v>76435.73471936819</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105837.4979023054</v>
+        <v>-105837.4979023052</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932576</v>
+        <v>267409.2501932561</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963178</v>
+        <v>446229.6438963201</v>
       </c>
       <c r="E6" t="n">
-        <v>88534.27831994301</v>
+        <v>88186.8990655847</v>
       </c>
       <c r="F6" t="n">
-        <v>689977.4858942069</v>
+        <v>689630.1066398504</v>
       </c>
       <c r="G6" t="n">
-        <v>689977.4858942067</v>
+        <v>689630.1066398504</v>
       </c>
       <c r="H6" t="n">
-        <v>689977.4858942069</v>
+        <v>689630.10663985</v>
       </c>
       <c r="I6" t="n">
-        <v>689977.4858942075</v>
+        <v>689630.10663985</v>
       </c>
       <c r="J6" t="n">
-        <v>640912.5411656623</v>
+        <v>640565.1619113053</v>
       </c>
       <c r="K6" t="n">
-        <v>627063.8482353877</v>
+        <v>626716.4689810304</v>
       </c>
       <c r="L6" t="n">
-        <v>662102.2322722313</v>
+        <v>661754.853017875</v>
       </c>
       <c r="M6" t="n">
-        <v>532831.1053426093</v>
+        <v>532483.7260882522</v>
       </c>
       <c r="N6" t="n">
-        <v>689977.485894207</v>
+        <v>689630.1066398504</v>
       </c>
       <c r="O6" t="n">
-        <v>689977.4858942075</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.1066398502</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950602</v>
+        <v>758.8996292950617</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594695</v>
+        <v>431.9757039594712</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821556</v>
+        <v>210.4296883821571</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262494</v>
+        <v>94.81103524262244</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.139252766692</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666951</v>
+        <v>110.139252766692</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>345.5455506866573</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>251.7591608382554</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,16 +27463,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>180.828824826833</v>
       </c>
       <c r="Y3" t="n">
-        <v>196.5344129420737</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,7 +27590,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>306.0574061003956</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>233.4917964190786</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425943</v>
+        <v>23.94240680425906</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937525</v>
+        <v>43.32085084937514</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.5968005457643</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>73.35584689659777</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>72.65868426393973</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,7 +27794,7 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589176</v>
+        <v>27.09972413207984</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.9371067181128</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>185.7651403059305</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
-        <v>182.8294478323629</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>7.286702481529801</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>148.1545559937842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30279,10 +30279,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-3.166808073631175e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.478997154632013e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>3.979039320256561e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30501,34 +30501,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.263686944622043e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.948917218084846e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085667</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520262</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511768</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396809</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610687</v>
+        <v>544.3712888610697</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191481</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860956</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489897</v>
+        <v>69.52130774898984</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868533</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062475</v>
+        <v>56.20152915062486</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316626</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721883</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658078</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468659</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374446</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947715</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378869</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734524</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635545</v>
+        <v>96.75348224635563</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054699</v>
+        <v>61.53307486054711</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883079</v>
+        <v>5.847259438830801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656338</v>
+        <v>0.07464586517656352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>454.5879800486393</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>539.0475940357389</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>522.1224556861836</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>316.3837382263852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198354</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070457</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811896</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695363</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644778</v>
+        <v>314.9582252644788</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974613</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308261</v>
+        <v>207.4834477308269</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890162</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092665</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573036</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923141</v>
+        <v>215.8732253923148</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437895</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635326</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930002</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729182</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872787</v>
+        <v>68.38629016872827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554441</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501444</v>
+        <v>68.57507023501483</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230838</v>
+        <v>75.59399159230881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761528</v>
+        <v>81.73343028761568</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569163</v>
+        <v>54.97578017569199</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235199</v>
+        <v>27.78676100235231</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,22 +35971,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>311.9917356041949</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.96455263125056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>396.4513495912944</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>379.5262112417391</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>182.409330812055</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317057</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462727</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902945</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.587454168381</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295316</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3944369.871806952</v>
+        <v>3946130.402109737</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.1712092340063</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>24.94416037664449</v>
+        <v>95.67753557910562</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443444</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>178.7600883149708</v>
+        <v>145.6643476324784</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.766182538596326</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.56939904995028</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>156.245396120383</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.811433473811695</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>269.3968352920047</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.4727983501231</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.2769799447059</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>159.960118617098</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9.854692234071402</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>126.632153562788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5858322992708</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>216.8180354051597</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>105.8965430419533</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.3736250957656</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="C2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="D2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097404</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097404</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4024563932556</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.4586105884538</v>
+        <v>485.2430363127823</v>
       </c>
       <c r="C3" t="n">
-        <v>326.0055813073268</v>
+        <v>485.2430363127823</v>
       </c>
       <c r="D3" t="n">
-        <v>177.0711716460756</v>
+        <v>336.308626651531</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>177.0711716460755</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>500.4586105884538</v>
+        <v>653.4583733328503</v>
       </c>
       <c r="Y3" t="n">
-        <v>500.4586105884538</v>
+        <v>653.4583733328503</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1354.437057576805</v>
+        <v>686.4755119751317</v>
       </c>
       <c r="C5" t="n">
-        <v>985.4745406363932</v>
+        <v>686.4755119751317</v>
       </c>
       <c r="D5" t="n">
-        <v>627.2088420296427</v>
+        <v>686.4755119751317</v>
       </c>
       <c r="E5" t="n">
-        <v>627.2088420296427</v>
+        <v>686.4755119751317</v>
       </c>
       <c r="F5" t="n">
-        <v>620.2633412804392</v>
+        <v>275.4896071855241</v>
       </c>
       <c r="G5" t="n">
-        <v>439.6975955077415</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030768</v>
+        <v>521.2049416030783</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709181</v>
+        <v>823.5081935709212</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837885</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837885</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="W5" t="n">
-        <v>1727.902815837885</v>
+        <v>1450.080602212023</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.437057576805</v>
+        <v>1076.614843950943</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.437057576805</v>
+        <v>686.4755119751317</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.2644789565795</v>
+        <v>357.9454952591361</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>183.4924659780091</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787575</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="S6" t="n">
-        <v>1394.26574288701</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="T6" t="n">
-        <v>1394.26574288701</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="U6" t="n">
-        <v>1394.26574288701</v>
+        <v>1431.162096209635</v>
       </c>
       <c r="V6" t="n">
-        <v>1159.113634655268</v>
+        <v>1196.009987977892</v>
       </c>
       <c r="W6" t="n">
-        <v>904.8762779270662</v>
+        <v>941.7726312496909</v>
       </c>
       <c r="X6" t="n">
-        <v>697.0247777215334</v>
+        <v>733.9211310441581</v>
       </c>
       <c r="Y6" t="n">
-        <v>489.2644789565795</v>
+        <v>526.1608322792042</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="C7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="D7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="E7" t="n">
-        <v>211.9954171409716</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306121</v>
+        <v>222.9291020878925</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="R7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="S7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="T7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="U7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="V7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="W7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="X7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495858028</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
         <v>55.35983779428172</v>
@@ -4804,19 +4804,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4840,16 +4840,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793417</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,13 +4901,13 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
         <v>1745.745249409541</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C10" t="n">
-        <v>358.7134696495909</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D10" t="n">
-        <v>208.5968302372552</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>510.3351124607289</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>277.5052172074025</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,10 +5603,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.054428916699</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.979202260897</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1434.29471405501</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6129,22 +6129,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,13 +6442,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6551,16 +6551,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7201,13 +7201,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876693</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753335</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929404</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7377,7 +7377,7 @@
         <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.70888054695308</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>39.52450498097795</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>2.150513196503198</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="9">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642829</v>
@@ -26325,13 +26325,13 @@
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
         <v>807146.599690006</v>
@@ -26343,16 +26343,16 @@
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253125</v>
+        <v>270592.362025314</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231928</v>
+        <v>115410.0540231911</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881975</v>
+        <v>62913.63765882007</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197488</v>
+        <v>27875.25362197448</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26432,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26441,10 +26441,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189193</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936831</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105837.4979023052</v>
+        <v>-105837.4979023058</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932561</v>
+        <v>267409.2501932551</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963201</v>
+        <v>446229.6438963219</v>
       </c>
       <c r="E6" t="n">
-        <v>88186.8990655847</v>
+        <v>88499.54039450592</v>
       </c>
       <c r="F6" t="n">
-        <v>689630.1066398504</v>
+        <v>689942.747968771</v>
       </c>
       <c r="G6" t="n">
-        <v>689630.1066398504</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="H6" t="n">
-        <v>689630.10663985</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="I6" t="n">
-        <v>689630.10663985</v>
+        <v>689942.747968771</v>
       </c>
       <c r="J6" t="n">
-        <v>640565.1619113053</v>
+        <v>640877.8032402268</v>
       </c>
       <c r="K6" t="n">
-        <v>626716.4689810304</v>
+        <v>627029.1103099515</v>
       </c>
       <c r="L6" t="n">
-        <v>661754.853017875</v>
+        <v>662067.4943467968</v>
       </c>
       <c r="M6" t="n">
-        <v>532483.7260882522</v>
+        <v>532796.3674171732</v>
       </c>
       <c r="N6" t="n">
-        <v>689630.1066398504</v>
+        <v>689942.7479687713</v>
       </c>
       <c r="O6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687717</v>
       </c>
       <c r="P6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687715</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594726</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821571</v>
+        <v>210.4296883821582</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262244</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666922</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931525</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766692</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>251.7591608382554</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>241.7035085656167</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>180.828824826833</v>
+        <v>110.0954496243719</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,7 +27590,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356657</v>
+        <v>171.5037272356655</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>233.4917964190786</v>
+        <v>266.5875371015709</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>134.5968005457643</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>211.2645915740488</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>10.37707570983875</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.09972413207984</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>95.8760564790029</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27912,16 +27912,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.7651403059305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>11.39188093250843</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>7.286702481529801</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>12.73999905018416</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-3.166808073631175e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36919,19 +36919,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
